--- a/data.xlsx
+++ b/data.xlsx
@@ -1,44 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamdan\Desktop\sales_ui\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00607ECB-6F79-4D80-8E17-D11B83C382DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SalesLog" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Collections" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Assignments" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SalesLog" sheetId="1" r:id="rId1"/>
+    <sheet name="Collections" sheetId="2" r:id="rId2"/>
+    <sheet name="Assignments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+  <si>
+    <t>QuoteID</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>QuotedPrice</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>SalesRep</t>
+  </si>
+  <si>
+    <t>Deposit%</t>
+  </si>
+  <si>
+    <t>DepositPaid</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>JobType</t>
+  </si>
+  <si>
+    <t>DepositDue</t>
+  </si>
+  <si>
+    <t>BalanceDue</t>
+  </si>
+  <si>
+    <t>CrewMember</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>DaysTaken</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,95 +107,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -429,110 +432,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>QuoteID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>QuotedPrice</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SalesRep</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Deposit%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DepositPaid</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>StartDate</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>EndDate</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>JobType</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Won</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>jonas</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>20</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>45924</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Painting</t>
-        </is>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -540,73 +491,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>QuoteID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DepositDue</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DepositPaid</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BalanceDue</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
-        <v>80</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Partially Paid</t>
-        </is>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -615,82 +526,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>QuoteID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>StartDate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>EndDate</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CrewMember</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Payment</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DaysTaken</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>45924</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>45927</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Arham</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Ahmad</t>
-        </is>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamdan\Desktop\sales_ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00607ECB-6F79-4D80-8E17-D11B83C382DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC2971-DE32-4FA1-9513-D23207670D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>QuoteID</t>
   </si>
@@ -45,21 +45,24 @@
     <t>DepositPaid</t>
   </si>
   <si>
+    <t>SentDate</t>
+  </si>
+  <si>
+    <t>JobType</t>
+  </si>
+  <si>
+    <t>CollectionDate</t>
+  </si>
+  <si>
+    <t>BalanceDue</t>
+  </si>
+  <si>
     <t>StartDate</t>
   </si>
   <si>
     <t>EndDate</t>
   </si>
   <si>
-    <t>JobType</t>
-  </si>
-  <si>
-    <t>DepositDue</t>
-  </si>
-  <si>
-    <t>BalanceDue</t>
-  </si>
-  <si>
     <t>CrewMember</t>
   </si>
   <si>
@@ -67,14 +70,26 @@
   </si>
   <si>
     <t>DaysTaken</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>TaskStatus</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00&quot;%&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -125,11 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -433,10 +451,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K9"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,107 +570,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="G4:H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -555,12 +585,21 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,113 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamdan\Desktop\sales_ui\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAC2971-DE32-4FA1-9513-D23207670D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SalesLog" sheetId="1" r:id="rId1"/>
-    <sheet name="Collections" sheetId="2" r:id="rId2"/>
-    <sheet name="Assignments" sheetId="3" r:id="rId3"/>
+    <sheet name="SalesLog" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Collections" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Assignments" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>QuoteID</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>QuotedPrice</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>SalesRep</t>
-  </si>
-  <si>
-    <t>Deposit%</t>
-  </si>
-  <si>
-    <t>DepositPaid</t>
-  </si>
-  <si>
-    <t>SentDate</t>
-  </si>
-  <si>
-    <t>JobType</t>
-  </si>
-  <si>
-    <t>CollectionDate</t>
-  </si>
-  <si>
-    <t>BalanceDue</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>CrewMember</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>DaysTaken</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>TaskStatus</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="0.00&quot;%&quot;"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.00&quot;%&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,47 +53,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -450,55 +430,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>QuoteID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>QuotedPrice</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SalesRep</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Deposit%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DepositPaid</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SentDate</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>JobType</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1406</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSAASD</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Won</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>45932</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -506,49 +533,74 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>QuoteID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CollectionDate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DepositPaid</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>BalanceDue</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1406</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>45932</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DSAASD</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Partially Paid</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -556,50 +608,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>QuoteID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>StartDate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EndDate</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Client</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CrewMember</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Payment</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>DaysTaken</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TaskStatus</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,44 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamdan\Desktop\sales_ui\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5ECBF2-6771-4F84-B8BB-28DC4CBEF008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SalesLog" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Collections" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Assignments" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="SalesLog" sheetId="1" r:id="rId1"/>
+    <sheet name="Collections" sheetId="2" r:id="rId2"/>
+    <sheet name="Assignments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+  <si>
+    <t>QuoteID</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>QuotedPrice</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>SalesRep</t>
+  </si>
+  <si>
+    <t>Deposit%</t>
+  </si>
+  <si>
+    <t>DepositPaid</t>
+  </si>
+  <si>
+    <t>SentDate</t>
+  </si>
+  <si>
+    <t>JobType</t>
+  </si>
+  <si>
+    <t>CollectionDate</t>
+  </si>
+  <si>
+    <t>BalanceDue</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>CrewMember</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>DaysTaken</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>TaskStatus</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00&quot;%&quot;"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,96 +116,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,101 +440,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>QuoteID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>QuotedPrice</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SalesRep</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Deposit%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DepositPaid</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SentDate</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>JobType</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1406</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DSAASD</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Won</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>dsa</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>45932</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -533,73 +484,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>QuoteID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CollectionDate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>DepositPaid</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>BalanceDue</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1406</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>45932</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DSAASD</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Partially Paid</t>
-        </is>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -608,69 +519,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>QuoteID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>StartDate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>EndDate</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Client</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CrewMember</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Payment</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DaysTaken</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>TaskStatus</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Completed</t>
-        </is>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamdan\Desktop\sales_ui\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5ECBF2-6771-4F84-B8BB-28DC4CBEF008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="SalesLog" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales Log" sheetId="1" r:id="rId1"/>
     <sheet name="Collections" sheetId="2" r:id="rId2"/>
     <sheet name="Assignments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="138">
   <si>
     <t>QuoteID</t>
   </si>
@@ -49,6 +43,363 @@
   </si>
   <si>
     <t>JobType</t>
+  </si>
+  <si>
+    <t>Robert Goldman</t>
+  </si>
+  <si>
+    <t>John Belo</t>
+  </si>
+  <si>
+    <t>Stella Burke</t>
+  </si>
+  <si>
+    <t>Rene Burger</t>
+  </si>
+  <si>
+    <t>Gary Shawah</t>
+  </si>
+  <si>
+    <t>Katie Case</t>
+  </si>
+  <si>
+    <t>Sherry Lambert</t>
+  </si>
+  <si>
+    <t>Carol M</t>
+  </si>
+  <si>
+    <t>Alan Ferraro</t>
+  </si>
+  <si>
+    <t>Peter Straniero</t>
+  </si>
+  <si>
+    <t>Debbie Ross</t>
+  </si>
+  <si>
+    <t>Service Pro Sign Solutions - Wells Fargo Branch Drive Thru</t>
+  </si>
+  <si>
+    <t>Service Pro Sign Solutions -Wells Fargo Bloomfield</t>
+  </si>
+  <si>
+    <t>Tom Adkinson</t>
+  </si>
+  <si>
+    <t>Tracey Weiss</t>
+  </si>
+  <si>
+    <t>Conrad Banks</t>
+  </si>
+  <si>
+    <t>Service Pro Sign Solutions - Wells fargo Lodi</t>
+  </si>
+  <si>
+    <t>Lydia Rutigliano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunde Janda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linda Abourashed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracey Weiss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Belo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefanie Grone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirley Grone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Madresh </t>
+  </si>
+  <si>
+    <t>Ellen Lawler</t>
+  </si>
+  <si>
+    <t>Fred Reck</t>
+  </si>
+  <si>
+    <t>Arthur O Leary</t>
+  </si>
+  <si>
+    <t>Service Pro Sign Solutions - Wells Fargo Hillsborough</t>
+  </si>
+  <si>
+    <t>Denis Gregory</t>
+  </si>
+  <si>
+    <t>Service Pro Sign Solutions - Wells Fargo Bridgewater</t>
+  </si>
+  <si>
+    <t>Dairon Dip</t>
+  </si>
+  <si>
+    <t>Daniel Paolilo</t>
+  </si>
+  <si>
+    <t>John Leonard</t>
+  </si>
+  <si>
+    <t>Chelsey Luzetsky</t>
+  </si>
+  <si>
+    <t>Patricia Coburn</t>
+  </si>
+  <si>
+    <t>John Muller Sr</t>
+  </si>
+  <si>
+    <t>Sonia Porwal</t>
+  </si>
+  <si>
+    <t>Fred Petersen</t>
+  </si>
+  <si>
+    <t>Stacey Yourman - Kids Count Child Center</t>
+  </si>
+  <si>
+    <t>Sandra Fables</t>
+  </si>
+  <si>
+    <t>Allison Ryder</t>
+  </si>
+  <si>
+    <t>RoseMary Scanlon</t>
+  </si>
+  <si>
+    <t>Judy Pearson</t>
+  </si>
+  <si>
+    <t>Tony Martire</t>
+  </si>
+  <si>
+    <t>Lisa Garrabrant</t>
+  </si>
+  <si>
+    <t>Paul Scordo</t>
+  </si>
+  <si>
+    <t>Maria Demartino</t>
+  </si>
+  <si>
+    <t>Eli Kaufman</t>
+  </si>
+  <si>
+    <t>Austin Rose</t>
+  </si>
+  <si>
+    <t>Rod Mauceri</t>
+  </si>
+  <si>
+    <t>PAMELA MIELE</t>
+  </si>
+  <si>
+    <t>Ryan Fisk</t>
+  </si>
+  <si>
+    <t>Debbie Bellas</t>
+  </si>
+  <si>
+    <t>Shara Wolf</t>
+  </si>
+  <si>
+    <t>Service Pro Sign Solutions - Wells Fargo Clifton</t>
+  </si>
+  <si>
+    <t>Andrew Taylor</t>
+  </si>
+  <si>
+    <t>Jane Scarpone</t>
+  </si>
+  <si>
+    <t>Robert Luzetsky</t>
+  </si>
+  <si>
+    <t>Kristy Perrone</t>
+  </si>
+  <si>
+    <t>Joy Bartman</t>
+  </si>
+  <si>
+    <t>Faith Blee</t>
+  </si>
+  <si>
+    <t>Dave Geiger</t>
+  </si>
+  <si>
+    <t>Vicki Spalletta</t>
+  </si>
+  <si>
+    <t>James Byrnes</t>
+  </si>
+  <si>
+    <t>Gino Ricca</t>
+  </si>
+  <si>
+    <t>Wiliam Stoney</t>
+  </si>
+  <si>
+    <t>ROBERT DANDREA</t>
+  </si>
+  <si>
+    <t>Jack Kearton</t>
+  </si>
+  <si>
+    <t>Dennis Champ</t>
+  </si>
+  <si>
+    <t>Brian Deross</t>
+  </si>
+  <si>
+    <t>Ryan Fitzgerald</t>
+  </si>
+  <si>
+    <t>TED WINGENDER</t>
+  </si>
+  <si>
+    <t>Karen Killian</t>
+  </si>
+  <si>
+    <t>Mike Giulaino</t>
+  </si>
+  <si>
+    <t>Carol Demola</t>
+  </si>
+  <si>
+    <t>DAVID MILLER</t>
+  </si>
+  <si>
+    <t>Rich Turk</t>
+  </si>
+  <si>
+    <t>Alexis Peseau</t>
+  </si>
+  <si>
+    <t>Service Pro Sign Solutions</t>
+  </si>
+  <si>
+    <t>Maryann Brown</t>
+  </si>
+  <si>
+    <t>David Dudzak</t>
+  </si>
+  <si>
+    <t>Elisabethe DiCorcia</t>
+  </si>
+  <si>
+    <t>Michelle Larson</t>
+  </si>
+  <si>
+    <t>Tunde Janda</t>
+  </si>
+  <si>
+    <t>Joanna Luliano</t>
+  </si>
+  <si>
+    <t>Darlene Rivera</t>
+  </si>
+  <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>Interior Painting</t>
+  </si>
+  <si>
+    <t>Exterior Masonry</t>
+  </si>
+  <si>
+    <t>Exterior Painting</t>
+  </si>
+  <si>
+    <t>Interior Painting and Sheetrock</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>Interior Quote</t>
+  </si>
+  <si>
+    <t>Interior Improvement Quote</t>
+  </si>
+  <si>
+    <t>Basement Concrete</t>
+  </si>
+  <si>
+    <t>Full Interior Painting</t>
+  </si>
+  <si>
+    <t>Exterior Masonry Repair and Painting</t>
+  </si>
+  <si>
+    <t>Interior Ceiling Quote</t>
+  </si>
+  <si>
+    <t>1064</t>
+  </si>
+  <si>
+    <t>interior</t>
+  </si>
+  <si>
+    <t>exterior painting</t>
+  </si>
+  <si>
+    <t>Interior painting</t>
+  </si>
+  <si>
+    <t>Interior Paintiner - Units turn</t>
+  </si>
+  <si>
+    <t>exterior</t>
+  </si>
+  <si>
+    <t>Interior Floors</t>
+  </si>
+  <si>
+    <t>Interior Reno</t>
+  </si>
+  <si>
+    <t>Interior Painting - Popcorn removal</t>
+  </si>
+  <si>
+    <t>Interior Cabinets</t>
+  </si>
+  <si>
+    <t>Flooring - Viynl</t>
+  </si>
+  <si>
+    <t>Interior Sheetrock Install</t>
+  </si>
+  <si>
+    <t>Full interior Painting</t>
+  </si>
+  <si>
+    <t>interior Painting</t>
+  </si>
+  <si>
+    <t>interior Painting and popcorn removal</t>
   </si>
   <si>
     <t>CollectionDate</t>
@@ -84,8 +435,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +450,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,25 +491,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -440,16 +790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,27 +826,3215 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1843.33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45204</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>1006</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>4977.77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45210</v>
+      </c>
+      <c r="I3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1007</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>3877.36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45213</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>1008</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>4733.54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45219</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>1009</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>19008.53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45219</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>1010</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>874.95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45229</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>6154.3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45230</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>1012</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>4037.62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45230</v>
+      </c>
+      <c r="I9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1013</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>4525.24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45233</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>1014</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1172.88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45233</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>1015</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>5216.25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45237</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>1016</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>3753.23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45239</v>
+      </c>
+      <c r="I13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>1017</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>2312.43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45241</v>
+      </c>
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>1022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>7479.79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45241</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>1023</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>2772.98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45244</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1024</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1738.23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45252</v>
+      </c>
+      <c r="I17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1025</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>2289.12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45258</v>
+      </c>
+      <c r="I18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>1026</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>2332.08</v>
+      </c>
+      <c r="D19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>45260</v>
+      </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>1027</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>3520.3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>45262</v>
+      </c>
+      <c r="I20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>1028</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1050.26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>45264</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>1406</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1310.42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>45264</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>1030</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>7136.98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>45271</v>
+      </c>
+      <c r="I23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>1031</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>1151.55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>45275</v>
+      </c>
+      <c r="I24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>1033</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>4357.1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>45276</v>
+      </c>
+      <c r="I25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>1034</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>982.02</v>
+      </c>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>45278</v>
+      </c>
+      <c r="I26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>1035</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>18102.29</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>45279</v>
+      </c>
+      <c r="I27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>1036</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>3571.94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>45280</v>
+      </c>
+      <c r="I28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>1037</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>13578.82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>45281</v>
+      </c>
+      <c r="I29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>1038</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>5309.45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>45291</v>
+      </c>
+      <c r="I30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>1039</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>1702.76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>1043</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>2233.24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>45299</v>
+      </c>
+      <c r="I32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>1044</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>27852.68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>1045</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>7972.23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>45302</v>
+      </c>
+      <c r="I34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>1046</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>3199.82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>45302</v>
+      </c>
+      <c r="I35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>1047</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>5437.88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>45303</v>
+      </c>
+      <c r="I36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>1048</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>1772.12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>45313</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>1049</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>10203.35</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45313</v>
+      </c>
+      <c r="I38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>1050</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>3780.6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>45314</v>
+      </c>
+      <c r="I39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>1051</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>32230.31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45314</v>
+      </c>
+      <c r="I40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>1052</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>7906.28</v>
+      </c>
+      <c r="D41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>45315</v>
+      </c>
+      <c r="I41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>1053</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>4371.63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>45316</v>
+      </c>
+      <c r="I42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>1054</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>5790.86</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>45319</v>
+      </c>
+      <c r="I43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>1055</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>1821.5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>45320</v>
+      </c>
+      <c r="I44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>1056</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>10092.11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45320</v>
+      </c>
+      <c r="I45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>1059</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>2378.25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>45320</v>
+      </c>
+      <c r="I46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>1060</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>2967.68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45322</v>
+      </c>
+      <c r="I47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>1061</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>6835.73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>45322</v>
+      </c>
+      <c r="I48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>1062</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>9324.77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>45322</v>
+      </c>
+      <c r="I49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>1063</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>2305.97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>45330</v>
+      </c>
+      <c r="I50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>1064</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>19129.58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>45330</v>
+      </c>
+      <c r="I51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>1065</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>10318.54</v>
+      </c>
+      <c r="D52" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>45331</v>
+      </c>
+      <c r="I52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>1066</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>2000</v>
+      </c>
+      <c r="D53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>45334</v>
+      </c>
+      <c r="I53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>1067</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>8132.41</v>
+      </c>
+      <c r="D54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>45335</v>
+      </c>
+      <c r="I54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>1068</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>5789.03</v>
+      </c>
+      <c r="D55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>45336</v>
+      </c>
+      <c r="I55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>1069</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>2452.38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>45338</v>
+      </c>
+      <c r="I56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>1070</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>1500.02</v>
+      </c>
+      <c r="D57" t="s">
+        <v>97</v>
+      </c>
+      <c r="E57" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>45339</v>
+      </c>
+      <c r="I57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>1071</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>8989.049999999999</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>45342</v>
+      </c>
+      <c r="I58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>1072</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>2207.14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>45342</v>
+      </c>
+      <c r="I59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>1073</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>20258.75</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>45343</v>
+      </c>
+      <c r="I60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>1077</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>1258.17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>45343</v>
+      </c>
+      <c r="I61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>1078</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>2286.03</v>
+      </c>
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>45344</v>
+      </c>
+      <c r="I62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>1079</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>2145.72</v>
+      </c>
+      <c r="D63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>45346</v>
+      </c>
+      <c r="I63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>1080</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>4826.23</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>45346</v>
+      </c>
+      <c r="I64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>1081</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>1293.36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>45347</v>
+      </c>
+      <c r="I65" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>1082</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <v>1846.13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>45347</v>
+      </c>
+      <c r="I66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>1083</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <v>2093.58</v>
+      </c>
+      <c r="D67" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>45347</v>
+      </c>
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>1084</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <v>678.95</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>45348</v>
+      </c>
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>1085</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <v>5255.49</v>
+      </c>
+      <c r="D69" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>45349</v>
+      </c>
+      <c r="I69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>1086</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70">
+        <v>2857.55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>45349</v>
+      </c>
+      <c r="I70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>1087</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71">
+        <v>2902.33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>45349</v>
+      </c>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>1088</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72">
+        <v>5224.63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>45352</v>
+      </c>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>1089</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>35000</v>
+      </c>
+      <c r="D73" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>45352</v>
+      </c>
+      <c r="I73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>1090</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74">
+        <v>1599.38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>45355</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>1091</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75">
+        <v>4584.88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>45356</v>
+      </c>
+      <c r="I75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>1092</v>
+      </c>
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76">
+        <v>2111.18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>45357</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>1093</v>
+      </c>
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77">
+        <v>3500.5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>45357</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>1095</v>
+      </c>
+      <c r="B78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78">
+        <v>3412</v>
+      </c>
+      <c r="D78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>45361</v>
+      </c>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>1096</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79">
+        <v>1095.41</v>
+      </c>
+      <c r="D79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>45362</v>
+      </c>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>1097</v>
+      </c>
+      <c r="B80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80">
+        <v>3182.3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>45362</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>1098</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81">
+        <v>3731.88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>45362</v>
+      </c>
+      <c r="I81" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>1099</v>
+      </c>
+      <c r="B82" t="s">
+        <v>71</v>
+      </c>
+      <c r="C82">
+        <v>3518.63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>45362</v>
+      </c>
+      <c r="I82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>1100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83">
+        <v>4900.25</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>45362</v>
+      </c>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>1101</v>
+      </c>
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84">
+        <v>1663.38</v>
+      </c>
+      <c r="D84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>45362</v>
+      </c>
+      <c r="I84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>1102</v>
+      </c>
+      <c r="B85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85">
+        <v>5672.54</v>
+      </c>
+      <c r="D85" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>45365</v>
+      </c>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>1104</v>
+      </c>
+      <c r="B86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86">
+        <v>4403.61</v>
+      </c>
+      <c r="D86" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>45369</v>
+      </c>
+      <c r="I86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>1105</v>
+      </c>
+      <c r="B87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87">
+        <v>5437.4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>97</v>
+      </c>
+      <c r="E87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>45369</v>
+      </c>
+      <c r="I87" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>1106</v>
+      </c>
+      <c r="B88" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88">
+        <v>5000</v>
+      </c>
+      <c r="D88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>45369</v>
+      </c>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>1107</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89">
+        <v>7700</v>
+      </c>
+      <c r="D89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>45370</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>1108</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90">
+        <v>4392.93</v>
+      </c>
+      <c r="D90" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>45371</v>
+      </c>
+      <c r="I90" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>1109</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91">
+        <v>15451.46</v>
+      </c>
+      <c r="D91" t="s">
+        <v>97</v>
+      </c>
+      <c r="E91" t="s">
+        <v>99</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>45371</v>
+      </c>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>1110</v>
+      </c>
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92">
+        <v>8237.9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>45374</v>
+      </c>
+      <c r="I92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>1111</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93">
+        <v>5919.12</v>
+      </c>
+      <c r="D93" t="s">
+        <v>96</v>
+      </c>
+      <c r="E93" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>45376</v>
+      </c>
+      <c r="I93" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>1114</v>
+      </c>
+      <c r="B94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94">
+        <v>3059.99</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>45376</v>
+      </c>
+      <c r="I94" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>1115</v>
+      </c>
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95">
+        <v>5578.78</v>
+      </c>
+      <c r="D95" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>45376</v>
+      </c>
+      <c r="I95" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>1116</v>
+      </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96">
+        <v>1642.03</v>
+      </c>
+      <c r="D96" t="s">
+        <v>97</v>
+      </c>
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>45376</v>
+      </c>
+      <c r="I96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>1117</v>
+      </c>
+      <c r="B97" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97">
+        <v>10982.38</v>
+      </c>
+      <c r="D97" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>45377</v>
+      </c>
+      <c r="I97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>1119</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98">
+        <v>12536.05</v>
+      </c>
+      <c r="D98" t="s">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>45378</v>
+      </c>
+      <c r="I98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>1120</v>
+      </c>
+      <c r="B99" t="s">
+        <v>85</v>
+      </c>
+      <c r="C99">
+        <v>3300</v>
+      </c>
+      <c r="D99" t="s">
+        <v>97</v>
+      </c>
+      <c r="E99" t="s">
+        <v>99</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>45381</v>
+      </c>
+      <c r="I99" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>1121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100">
+        <v>3462.21</v>
+      </c>
+      <c r="D100" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>45381</v>
+      </c>
+      <c r="I100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>1122</v>
+      </c>
+      <c r="B101" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101">
+        <v>3158.09</v>
+      </c>
+      <c r="D101" t="s">
+        <v>96</v>
+      </c>
+      <c r="E101" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>45381</v>
+      </c>
+      <c r="I101" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>1123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102">
+        <v>1306.17</v>
+      </c>
+      <c r="D102" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>45383</v>
+      </c>
+      <c r="I102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>1124</v>
+      </c>
+      <c r="B103" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103">
+        <v>11517.05</v>
+      </c>
+      <c r="D103" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>45386</v>
+      </c>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>1125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104">
+        <v>2277.45</v>
+      </c>
+      <c r="D104" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>45392</v>
+      </c>
+      <c r="I104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>1128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105">
+        <v>2666.81</v>
+      </c>
+      <c r="D105" t="s">
+        <v>97</v>
+      </c>
+      <c r="E105" t="s">
+        <v>99</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>45397</v>
+      </c>
+      <c r="I105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>1130</v>
+      </c>
+      <c r="B106" t="s">
+        <v>91</v>
+      </c>
+      <c r="C106">
+        <v>4798.13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>45397</v>
+      </c>
+      <c r="I106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>1131</v>
+      </c>
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107">
+        <v>1184.6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>45397</v>
+      </c>
+      <c r="I107" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>1132</v>
+      </c>
+      <c r="B108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C108">
+        <v>4508.21</v>
+      </c>
+      <c r="D108" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108" t="s">
+        <v>100</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>45399</v>
+      </c>
+      <c r="I108" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>1133</v>
+      </c>
+      <c r="B109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109">
+        <v>8532.83</v>
+      </c>
+      <c r="D109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E109" t="s">
+        <v>99</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <v>45399</v>
+      </c>
+      <c r="I109" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>1134</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110">
+        <v>746.38</v>
+      </c>
+      <c r="D110" t="s">
+        <v>97</v>
+      </c>
+      <c r="E110" t="s">
+        <v>99</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>45401</v>
+      </c>
+      <c r="I110" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>1135</v>
+      </c>
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111">
+        <v>3291.04</v>
+      </c>
+      <c r="D111" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" t="s">
+        <v>99</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>45402</v>
+      </c>
+      <c r="I111" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -507,58 +4043,58 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamdan\Desktop\sales_ui\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665CC1B2-668A-423D-983A-B39BE676C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sales Log" sheetId="1" r:id="rId1"/>
+    <sheet name="SalesLog" sheetId="1" r:id="rId1"/>
     <sheet name="Collections" sheetId="2" r:id="rId2"/>
     <sheet name="Assignments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -45,9 +51,51 @@
     <t>JobType</t>
   </si>
   <si>
+    <t>Won</t>
+  </si>
+  <si>
+    <t>CollectionDate</t>
+  </si>
+  <si>
+    <t>BalanceDue</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>CrewMember</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>DaysTaken</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>TaskStatus</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
     <t>Robert Goldman</t>
   </si>
   <si>
+    <t>Lost</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Interior Painting</t>
+  </si>
+  <si>
     <t>John Belo</t>
   </si>
   <si>
@@ -69,15 +117,27 @@
     <t>Carol M</t>
   </si>
   <si>
+    <t>Exterior Masonry</t>
+  </si>
+  <si>
+    <t>Exterior Painting</t>
+  </si>
+  <si>
     <t>Alan Ferraro</t>
   </si>
   <si>
     <t>Peter Straniero</t>
   </si>
   <si>
+    <t>Interior Painting and Sheetrock</t>
+  </si>
+  <si>
     <t>Debbie Ross</t>
   </si>
   <si>
+    <t>Interior</t>
+  </si>
+  <si>
     <t>Service Pro Sign Solutions - Wells Fargo Branch Drive Thru</t>
   </si>
   <si>
@@ -96,12 +156,18 @@
     <t>Service Pro Sign Solutions - Wells fargo Lodi</t>
   </si>
   <si>
+    <t>Exterior</t>
+  </si>
+  <si>
     <t>Lydia Rutigliano</t>
   </si>
   <si>
     <t xml:space="preserve">Tunde Janda </t>
   </si>
   <si>
+    <t>Interior Quote</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linda Abourashed </t>
   </si>
   <si>
@@ -111,15 +177,30 @@
     <t xml:space="preserve">John Belo </t>
   </si>
   <si>
+    <t>Interior Improvement Quote</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stefanie Grone </t>
   </si>
   <si>
+    <t>Basement Concrete</t>
+  </si>
+  <si>
+    <t>Full Interior Painting</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shirley Grone </t>
   </si>
   <si>
+    <t>Exterior Masonry Repair and Painting</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arthur Madresh </t>
   </si>
   <si>
+    <t>Interior Ceiling Quote</t>
+  </si>
+  <si>
     <t>Ellen Lawler</t>
   </si>
   <si>
@@ -171,9 +252,15 @@
     <t>Allison Ryder</t>
   </si>
   <si>
+    <t>1064</t>
+  </si>
+  <si>
     <t>RoseMary Scanlon</t>
   </si>
   <si>
+    <t>interior</t>
+  </si>
+  <si>
     <t>Judy Pearson</t>
   </si>
   <si>
@@ -189,6 +276,9 @@
     <t>Maria Demartino</t>
   </si>
   <si>
+    <t>exterior painting</t>
+  </si>
+  <si>
     <t>Eli Kaufman</t>
   </si>
   <si>
@@ -201,15 +291,27 @@
     <t>PAMELA MIELE</t>
   </si>
   <si>
+    <t>Interior painting</t>
+  </si>
+  <si>
     <t>Ryan Fisk</t>
   </si>
   <si>
     <t>Debbie Bellas</t>
   </si>
   <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>Interior Paintiner - Units turn</t>
+  </si>
+  <si>
     <t>Shara Wolf</t>
   </si>
   <si>
+    <t>exterior</t>
+  </si>
+  <si>
     <t>Service Pro Sign Solutions - Wells Fargo Clifton</t>
   </si>
   <si>
@@ -219,9 +321,18 @@
     <t>Jane Scarpone</t>
   </si>
   <si>
+    <t>Interior Floors</t>
+  </si>
+  <si>
+    <t>Interior Reno</t>
+  </si>
+  <si>
     <t>Robert Luzetsky</t>
   </si>
   <si>
+    <t>Interior Painting - Popcorn removal</t>
+  </si>
+  <si>
     <t>Kristy Perrone</t>
   </si>
   <si>
@@ -231,6 +342,9 @@
     <t>Faith Blee</t>
   </si>
   <si>
+    <t>Interior Cabinets</t>
+  </si>
+  <si>
     <t>Dave Geiger</t>
   </si>
   <si>
@@ -249,21 +363,33 @@
     <t>ROBERT DANDREA</t>
   </si>
   <si>
+    <t>Flooring - Viynl</t>
+  </si>
+  <si>
     <t>Jack Kearton</t>
   </si>
   <si>
+    <t>Interior Sheetrock Install</t>
+  </si>
+  <si>
     <t>Dennis Champ</t>
   </si>
   <si>
     <t>Brian Deross</t>
   </si>
   <si>
+    <t>Full interior Painting</t>
+  </si>
+  <si>
     <t>Ryan Fitzgerald</t>
   </si>
   <si>
     <t>TED WINGENDER</t>
   </si>
   <si>
+    <t>interior Painting</t>
+  </si>
+  <si>
     <t>Karen Killian</t>
   </si>
   <si>
@@ -273,6 +399,9 @@
     <t>Carol Demola</t>
   </si>
   <si>
+    <t>interior Painting and popcorn removal</t>
+  </si>
+  <si>
     <t>DAVID MILLER</t>
   </si>
   <si>
@@ -300,146 +429,23 @@
     <t>Tunde Janda</t>
   </si>
   <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
     <t>Joanna Luliano</t>
   </si>
   <si>
     <t>Darlene Rivera</t>
-  </si>
-  <si>
-    <t>Lost</t>
-  </si>
-  <si>
-    <t>Won</t>
-  </si>
-  <si>
-    <t>Sent</t>
-  </si>
-  <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
-  </si>
-  <si>
-    <t>Interior Painting</t>
-  </si>
-  <si>
-    <t>Exterior Masonry</t>
-  </si>
-  <si>
-    <t>Exterior Painting</t>
-  </si>
-  <si>
-    <t>Interior Painting and Sheetrock</t>
-  </si>
-  <si>
-    <t>Interior</t>
-  </si>
-  <si>
-    <t>Exterior</t>
-  </si>
-  <si>
-    <t>Interior Quote</t>
-  </si>
-  <si>
-    <t>Interior Improvement Quote</t>
-  </si>
-  <si>
-    <t>Basement Concrete</t>
-  </si>
-  <si>
-    <t>Full Interior Painting</t>
-  </si>
-  <si>
-    <t>Exterior Masonry Repair and Painting</t>
-  </si>
-  <si>
-    <t>Interior Ceiling Quote</t>
-  </si>
-  <si>
-    <t>1064</t>
-  </si>
-  <si>
-    <t>interior</t>
-  </si>
-  <si>
-    <t>exterior painting</t>
-  </si>
-  <si>
-    <t>Interior painting</t>
-  </si>
-  <si>
-    <t>Interior Paintiner - Units turn</t>
-  </si>
-  <si>
-    <t>exterior</t>
-  </si>
-  <si>
-    <t>Interior Floors</t>
-  </si>
-  <si>
-    <t>Interior Reno</t>
-  </si>
-  <si>
-    <t>Interior Painting - Popcorn removal</t>
-  </si>
-  <si>
-    <t>Interior Cabinets</t>
-  </si>
-  <si>
-    <t>Flooring - Viynl</t>
-  </si>
-  <si>
-    <t>Interior Sheetrock Install</t>
-  </si>
-  <si>
-    <t>Full interior Painting</t>
-  </si>
-  <si>
-    <t>interior Painting</t>
-  </si>
-  <si>
-    <t>interior Painting and popcorn removal</t>
-  </si>
-  <si>
-    <t>CollectionDate</t>
-  </si>
-  <si>
-    <t>BalanceDue</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>CrewMember</t>
-  </si>
-  <si>
-    <t>Payment</t>
-  </si>
-  <si>
-    <t>DaysTaken</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>TaskStatus</t>
-  </si>
-  <si>
-    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,10 +456,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -496,13 +499,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -790,14 +801,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,21 +839,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1002</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1843.33</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -852,24 +865,24 @@
         <v>45204</v>
       </c>
       <c r="I2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1006</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>4977.77</v>
+        <v>4977.7700000000004</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -881,24 +894,24 @@
         <v>45210</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1007</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>3877.36</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -910,24 +923,24 @@
         <v>45213</v>
       </c>
       <c r="I4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1008</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>4733.54</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -939,24 +952,24 @@
         <v>45219</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1009</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>19008.53</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -968,24 +981,24 @@
         <v>45219</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1010</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>874.95</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -997,24 +1010,24 @@
         <v>45229</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1011</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>6154.3</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1026,24 +1039,24 @@
         <v>45230</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1012</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>4037.62</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1055,24 +1068,24 @@
         <v>45230</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1013</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>4525.24</v>
       </c>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1084,24 +1097,24 @@
         <v>45233</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1014</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>1172.88</v>
+        <v>1172.8800000000001</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1113,24 +1126,24 @@
         <v>45233</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1015</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>5216.25</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1142,24 +1155,24 @@
         <v>45237</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1016</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>3753.23</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1171,24 +1184,24 @@
         <v>45239</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1017</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C14">
-        <v>2312.43</v>
+        <v>2312.4299999999998</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1200,24 +1213,24 @@
         <v>45241</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1022</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>7479.79</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1229,24 +1242,24 @@
         <v>45241</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1023</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>2772.98</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1258,24 +1271,24 @@
         <v>45244</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1024</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>1738.23</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1287,24 +1300,24 @@
         <v>45252</v>
       </c>
       <c r="I17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1025</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>2289.12</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1316,24 +1329,24 @@
         <v>45258</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1026</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>2332.08</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1345,24 +1358,24 @@
         <v>45260</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1027</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>3520.3</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1374,24 +1387,24 @@
         <v>45262</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1028</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <v>1050.26</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1403,24 +1416,24 @@
         <v>45264</v>
       </c>
       <c r="I21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1406</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C22">
         <v>1310.42</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1432,24 +1445,24 @@
         <v>45264</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1030</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C23">
         <v>7136.98</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1461,24 +1474,24 @@
         <v>45271</v>
       </c>
       <c r="I23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1031</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>1151.55</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1490,24 +1503,24 @@
         <v>45275</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1033</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>4357.1</v>
+        <v>4357.1000000000004</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1519,24 +1532,24 @@
         <v>45276</v>
       </c>
       <c r="I25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1034</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>982.02</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1548,24 +1561,24 @@
         <v>45278</v>
       </c>
       <c r="I26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1035</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>18102.29</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1577,24 +1590,24 @@
         <v>45279</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1036</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>3571.94</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1606,24 +1619,24 @@
         <v>45280</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1037</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>13578.82</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1635,24 +1648,24 @@
         <v>45281</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1038</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>5309.45</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1664,24 +1677,24 @@
         <v>45291</v>
       </c>
       <c r="I30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1039</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>1702.76</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1693,24 +1706,24 @@
         <v>45299</v>
       </c>
       <c r="I31" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1043</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C32">
-        <v>2233.24</v>
+        <v>2233.2399999999998</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1722,24 +1735,24 @@
         <v>45299</v>
       </c>
       <c r="I32" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1044</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C33">
         <v>27852.68</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1751,24 +1764,24 @@
         <v>45300</v>
       </c>
       <c r="I33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1045</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <v>7972.23</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1780,24 +1793,24 @@
         <v>45302</v>
       </c>
       <c r="I34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1046</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C35">
         <v>3199.82</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1809,24 +1822,24 @@
         <v>45302</v>
       </c>
       <c r="I35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1047</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C36">
         <v>5437.88</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1838,24 +1851,24 @@
         <v>45303</v>
       </c>
       <c r="I36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1048</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>1772.12</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1867,24 +1880,24 @@
         <v>45313</v>
       </c>
       <c r="I37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1049</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C38">
         <v>10203.35</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1896,24 +1909,24 @@
         <v>45313</v>
       </c>
       <c r="I38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1050</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C39">
         <v>3780.6</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1925,24 +1938,24 @@
         <v>45314</v>
       </c>
       <c r="I39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1051</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C40">
         <v>32230.31</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1954,24 +1967,24 @@
         <v>45314</v>
       </c>
       <c r="I40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1052</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>7906.28</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1983,24 +1996,24 @@
         <v>45315</v>
       </c>
       <c r="I41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1053</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C42">
         <v>4371.63</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2012,24 +2025,24 @@
         <v>45316</v>
       </c>
       <c r="I42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1054</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C43">
         <v>5790.86</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2041,24 +2054,24 @@
         <v>45319</v>
       </c>
       <c r="I43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1055</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>1821.5</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2070,24 +2083,24 @@
         <v>45320</v>
       </c>
       <c r="I44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1056</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>10092.11</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2099,24 +2112,24 @@
         <v>45320</v>
       </c>
       <c r="I45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1059</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C46">
         <v>2378.25</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2128,24 +2141,24 @@
         <v>45320</v>
       </c>
       <c r="I46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1060</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>2967.68</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2157,24 +2170,24 @@
         <v>45322</v>
       </c>
       <c r="I47" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1061</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>6835.73</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2186,24 +2199,24 @@
         <v>45322</v>
       </c>
       <c r="I48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1062</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C49">
         <v>9324.77</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2215,24 +2228,24 @@
         <v>45322</v>
       </c>
       <c r="I49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1063</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C50">
-        <v>2305.97</v>
+        <v>2305.9699999999998</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2244,24 +2257,24 @@
         <v>45330</v>
       </c>
       <c r="I50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1064</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C51">
-        <v>19129.58</v>
+        <v>19129.580000000002</v>
       </c>
       <c r="D51" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2273,24 +2286,24 @@
         <v>45330</v>
       </c>
       <c r="I51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1065</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C52">
-        <v>10318.54</v>
+        <v>10318.540000000001</v>
       </c>
       <c r="D52" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2302,24 +2315,24 @@
         <v>45331</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1066</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C53">
         <v>2000</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2331,24 +2344,24 @@
         <v>45334</v>
       </c>
       <c r="I53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1067</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C54">
         <v>8132.41</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2360,24 +2373,24 @@
         <v>45335</v>
       </c>
       <c r="I54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1068</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <v>5789.03</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2389,24 +2402,24 @@
         <v>45336</v>
       </c>
       <c r="I55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1069</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C56">
         <v>2452.38</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2418,24 +2431,24 @@
         <v>45338</v>
       </c>
       <c r="I56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1070</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C57">
         <v>1500.02</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2447,24 +2460,24 @@
         <v>45339</v>
       </c>
       <c r="I57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1071</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C58">
-        <v>8989.049999999999</v>
+        <v>8989.0499999999993</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2476,24 +2489,24 @@
         <v>45342</v>
       </c>
       <c r="I58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1072</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C59">
         <v>2207.14</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2505,24 +2518,24 @@
         <v>45342</v>
       </c>
       <c r="I59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1073</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C60">
         <v>20258.75</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2534,24 +2547,24 @@
         <v>45343</v>
       </c>
       <c r="I60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1077</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>1258.17</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2563,24 +2576,24 @@
         <v>45343</v>
       </c>
       <c r="I61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1078</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C62">
-        <v>2286.03</v>
+        <v>2286.0300000000002</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2592,24 +2605,24 @@
         <v>45344</v>
       </c>
       <c r="I62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1079</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="C63">
-        <v>2145.72</v>
+        <v>2145.7199999999998</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2621,24 +2634,24 @@
         <v>45346</v>
       </c>
       <c r="I63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1080</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="C64">
-        <v>4826.23</v>
+        <v>4826.2299999999996</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -2650,24 +2663,24 @@
         <v>45346</v>
       </c>
       <c r="I64" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1081</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C65">
-        <v>1293.36</v>
+        <v>1293.3599999999999</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2679,24 +2692,24 @@
         <v>45347</v>
       </c>
       <c r="I65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1082</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C66">
         <v>1846.13</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2708,24 +2721,24 @@
         <v>45347</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1083</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C67">
         <v>2093.58</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2737,24 +2750,24 @@
         <v>45347</v>
       </c>
       <c r="I67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1084</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C68">
         <v>678.95</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2766,24 +2779,24 @@
         <v>45348</v>
       </c>
       <c r="I68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1085</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="C69">
         <v>5255.49</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2795,24 +2808,24 @@
         <v>45349</v>
       </c>
       <c r="I69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1086</v>
       </c>
       <c r="B70" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C70">
         <v>2857.55</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2824,24 +2837,24 @@
         <v>45349</v>
       </c>
       <c r="I70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1087</v>
       </c>
       <c r="B71" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C71">
         <v>2902.33</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2853,24 +2866,24 @@
         <v>45349</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1088</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C72">
         <v>5224.63</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2882,24 +2895,24 @@
         <v>45352</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1089</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C73">
         <v>35000</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2911,24 +2924,24 @@
         <v>45352</v>
       </c>
       <c r="I73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1090</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C74">
         <v>1599.38</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2940,24 +2953,24 @@
         <v>45355</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1091</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>4584.88</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2969,24 +2982,24 @@
         <v>45356</v>
       </c>
       <c r="I75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1092</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C76">
-        <v>2111.18</v>
+        <v>2111.1799999999998</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -2998,24 +3011,24 @@
         <v>45357</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1093</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>3500.5</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3027,24 +3040,24 @@
         <v>45357</v>
       </c>
       <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1095</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C78">
         <v>3412</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3056,24 +3069,24 @@
         <v>45361</v>
       </c>
       <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1096</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C79">
-        <v>1095.41</v>
+        <v>1095.4100000000001</v>
       </c>
       <c r="D79" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3085,24 +3098,24 @@
         <v>45362</v>
       </c>
       <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1097</v>
       </c>
       <c r="B80" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="C80">
         <v>3182.3</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3114,24 +3127,24 @@
         <v>45362</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1098</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C81">
         <v>3731.88</v>
       </c>
       <c r="D81" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3143,24 +3156,24 @@
         <v>45362</v>
       </c>
       <c r="I81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1099</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="C82">
         <v>3518.63</v>
       </c>
       <c r="D82" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3172,24 +3185,24 @@
         <v>45362</v>
       </c>
       <c r="I82" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1100</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C83">
         <v>4900.25</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3201,24 +3214,24 @@
         <v>45362</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1101</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C84">
         <v>1663.38</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3230,24 +3243,24 @@
         <v>45362</v>
       </c>
       <c r="I84" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1102</v>
       </c>
       <c r="B85" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C85">
         <v>5672.54</v>
       </c>
       <c r="D85" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3259,24 +3272,24 @@
         <v>45365</v>
       </c>
       <c r="I85" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1104</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C86">
-        <v>4403.61</v>
+        <v>4403.6099999999997</v>
       </c>
       <c r="D86" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3288,24 +3301,24 @@
         <v>45369</v>
       </c>
       <c r="I86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1105</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C87">
         <v>5437.4</v>
       </c>
       <c r="D87" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3317,24 +3330,24 @@
         <v>45369</v>
       </c>
       <c r="I87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1106</v>
       </c>
       <c r="B88" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="C88">
         <v>5000</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3346,24 +3359,24 @@
         <v>45369</v>
       </c>
       <c r="I88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1107</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C89">
         <v>7700</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -3375,24 +3388,24 @@
         <v>45370</v>
       </c>
       <c r="I89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1108</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C90">
         <v>4392.93</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3404,24 +3417,24 @@
         <v>45371</v>
       </c>
       <c r="I90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1109</v>
       </c>
       <c r="B91" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="C91">
         <v>15451.46</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3433,24 +3446,24 @@
         <v>45371</v>
       </c>
       <c r="I91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1110</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="C92">
         <v>8237.9</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -3462,24 +3475,24 @@
         <v>45374</v>
       </c>
       <c r="I92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1111</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C93">
         <v>5919.12</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -3491,24 +3504,24 @@
         <v>45376</v>
       </c>
       <c r="I93" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1114</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C94">
         <v>3059.99</v>
       </c>
       <c r="D94" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3520,24 +3533,24 @@
         <v>45376</v>
       </c>
       <c r="I94" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1115</v>
       </c>
       <c r="B95" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C95">
         <v>5578.78</v>
       </c>
       <c r="D95" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3549,24 +3562,24 @@
         <v>45376</v>
       </c>
       <c r="I95" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1116</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="C96">
         <v>1642.03</v>
       </c>
       <c r="D96" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3578,24 +3591,24 @@
         <v>45376</v>
       </c>
       <c r="I96" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1117</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="C97">
         <v>10982.38</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -3607,24 +3620,24 @@
         <v>45377</v>
       </c>
       <c r="I97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1119</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C98">
         <v>12536.05</v>
       </c>
       <c r="D98" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3636,24 +3649,24 @@
         <v>45378</v>
       </c>
       <c r="I98" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1120</v>
       </c>
       <c r="B99" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C99">
         <v>3300</v>
       </c>
       <c r="D99" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -3665,24 +3678,24 @@
         <v>45381</v>
       </c>
       <c r="I99" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1121</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="C100">
         <v>3462.21</v>
       </c>
       <c r="D100" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3694,24 +3707,24 @@
         <v>45381</v>
       </c>
       <c r="I100" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1122</v>
       </c>
       <c r="B101" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C101">
         <v>3158.09</v>
       </c>
       <c r="D101" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -3723,24 +3736,24 @@
         <v>45381</v>
       </c>
       <c r="I101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1123</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="C102">
         <v>1306.17</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E102" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3752,24 +3765,24 @@
         <v>45383</v>
       </c>
       <c r="I102" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1124</v>
       </c>
       <c r="B103" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C103">
         <v>11517.05</v>
       </c>
       <c r="D103" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3781,24 +3794,24 @@
         <v>45386</v>
       </c>
       <c r="I103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1125</v>
       </c>
       <c r="B104" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="C104">
-        <v>2277.45</v>
+        <v>2277.4499999999998</v>
       </c>
       <c r="D104" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3810,24 +3823,24 @@
         <v>45392</v>
       </c>
       <c r="I104" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1128</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="C105">
         <v>2666.81</v>
       </c>
       <c r="D105" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3839,24 +3852,24 @@
         <v>45397</v>
       </c>
       <c r="I105" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1130</v>
       </c>
       <c r="B106" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C106">
         <v>4798.13</v>
       </c>
       <c r="D106" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E106" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3868,24 +3881,24 @@
         <v>45397</v>
       </c>
       <c r="I106" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1131</v>
       </c>
       <c r="B107" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C107">
-        <v>1184.6</v>
+        <v>1184.5999999999999</v>
       </c>
       <c r="D107" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3897,24 +3910,24 @@
         <v>45397</v>
       </c>
       <c r="I107" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1132</v>
       </c>
       <c r="B108" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="C108">
         <v>4508.21</v>
       </c>
       <c r="D108" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3926,24 +3939,24 @@
         <v>45399</v>
       </c>
       <c r="I108" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1133</v>
       </c>
       <c r="B109" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C109">
         <v>8532.83</v>
       </c>
       <c r="D109" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3955,24 +3968,24 @@
         <v>45399</v>
       </c>
       <c r="I109" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1134</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="C110">
         <v>746.38</v>
       </c>
       <c r="D110" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3984,24 +3997,24 @@
         <v>45401</v>
       </c>
       <c r="I110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1135</v>
       </c>
       <c r="B111" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C111">
         <v>3291.04</v>
       </c>
       <c r="D111" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4013,28 +4026,30 @@
         <v>45402</v>
       </c>
       <c r="I111" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4043,58 +4058,58 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamdan\Desktop\sales_ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665CC1B2-668A-423D-983A-B39BE676C3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37266D2C-4072-4043-B61D-F8F2B1D3F8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SalesLog" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -499,7 +499,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1406</v>
+        <v>1029</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
